--- a/IT002-OOP/it002m23cncl/it002m23cncl2.xlsx
+++ b/IT002-OOP/it002m23cncl/it002m23cncl2.xlsx
@@ -475,7 +475,9 @@
       <c r="D2" t="n">
         <v>300</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>183.33</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -509,7 +511,9 @@
       <c r="D4" t="n">
         <v>800</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>700</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -543,7 +547,9 @@
       <c r="D6" t="n">
         <v>800</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>800</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -562,7 +568,9 @@
       <c r="D7" t="n">
         <v>800</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>800</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -581,7 +589,9 @@
       <c r="D8" t="n">
         <v>800</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>800</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -619,7 +629,9 @@
       <c r="D10" t="n">
         <v>550</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>800</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -638,7 +650,9 @@
       <c r="D11" t="n">
         <v>700</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>800</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -687,7 +701,9 @@
       <c r="D14" t="n">
         <v>614.29</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>700</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -706,7 +722,9 @@
       <c r="D15" t="n">
         <v>800</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>700</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -725,7 +743,9 @@
       <c r="D16" t="n">
         <v>800</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>800</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -742,7 +762,9 @@
       <c r="D17" t="n">
         <v>400</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>600</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -761,7 +783,9 @@
       <c r="D18" t="n">
         <v>742.86</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>600</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -797,7 +821,9 @@
       <c r="D20" t="n">
         <v>800</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>300</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -816,7 +842,9 @@
       <c r="D21" t="n">
         <v>600</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>450</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -835,7 +863,9 @@
       <c r="D22" t="n">
         <v>600</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>500</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -854,7 +884,9 @@
       <c r="D23" t="n">
         <v>800</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>800</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -873,7 +905,9 @@
       <c r="D24" t="n">
         <v>800</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>600</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>

--- a/IT002-OOP/it002m23cncl/it002m23cncl2.xlsx
+++ b/IT002-OOP/it002m23cncl/it002m23cncl2.xlsx
@@ -514,7 +514,9 @@
       <c r="E4" t="n">
         <v>700</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>200</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -550,7 +552,9 @@
       <c r="E6" t="n">
         <v>800</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>800</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -571,7 +575,9 @@
       <c r="E7" t="n">
         <v>800</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>800</v>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -592,7 +598,9 @@
       <c r="E8" t="n">
         <v>800</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>800</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -611,7 +619,9 @@
         <v>350</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>800</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -632,7 +642,9 @@
       <c r="E10" t="n">
         <v>800</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>300</v>
+      </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -653,7 +665,9 @@
       <c r="E11" t="n">
         <v>800</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>450</v>
+      </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -725,7 +739,9 @@
       <c r="E15" t="n">
         <v>700</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>800</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -746,7 +762,9 @@
       <c r="E16" t="n">
         <v>800</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>700</v>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -786,7 +804,9 @@
       <c r="E18" t="n">
         <v>600</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>500</v>
+      </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -803,7 +823,9 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>200</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -824,7 +846,9 @@
       <c r="E20" t="n">
         <v>300</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>750</v>
+      </c>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -845,7 +869,9 @@
       <c r="E21" t="n">
         <v>450</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>300</v>
+      </c>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -866,7 +892,9 @@
       <c r="E22" t="n">
         <v>500</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -887,7 +915,9 @@
       <c r="E23" t="n">
         <v>800</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>800</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -908,7 +938,9 @@
       <c r="E24" t="n">
         <v>600</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>750</v>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
   </sheetData>
